--- a/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/freeze/ce-uniform/24677315/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/freeze/ce-uniform/24677315/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9781498312950134</v>
+        <v>0.9679609537124634</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9779601693153381</v>
+        <v>0.9677215218544006</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9767564535140991</v>
+        <v>0.9659862518310547</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.720166027545929</v>
+        <v>0.6168069839477539</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.979251503944397</v>
+        <v>0.9695134162902832</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9800313711166382</v>
+        <v>0.9706001877784729</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.97989821434021</v>
+        <v>0.9703900814056396</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9795054197311401</v>
+        <v>0.9698324203491211</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.97989821434021</v>
+        <v>0.9703900814056396</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.59483802318573</v>
+        <v>0.5145090222358704</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9814134836196899</v>
+        <v>0.9724870324134827</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9098403453826904</v>
+        <v>0.8505762815475464</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9789587259292603</v>
+        <v>0.9690903425216675</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9790088534355164</v>
+        <v>0.9691663980484009</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9792554974555969</v>
+        <v>0.9695438742637634</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9793093204498291</v>
+        <v>0.9696053862571716</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3281570076942444</v>
+        <v>0.327272355556488</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9804822206497192</v>
+        <v>0.9712168574333191</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9808078408241272</v>
+        <v>0.9716914296150208</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.976975679397583</v>
+        <v>0.9663417935371399</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.979062557220459</v>
+        <v>0.9692283272743225</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9804875254631042</v>
+        <v>0.9712310433387756</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9808974862098694</v>
+        <v>0.9718070030212402</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7190981507301331</v>
+        <v>0.6152121424674988</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3233920633792877</v>
+        <v>0.321126252412796</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9781770706176758</v>
+        <v>0.9680113196372986</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9779601693153381</v>
+        <v>0.9677215218544006</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9770858287811279</v>
+        <v>0.9665049910545349</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.97925865650177</v>
+        <v>0.9695355892181396</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9780054688453674</v>
+        <v>0.9678018093109131</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9801307916641235</v>
+        <v>0.9707475304603577</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8861691951751709</v>
+        <v>0.8275207281112671</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9105053544044495</v>
+        <v>0.851220965385437</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9054417610168457</v>
+        <v>0.8446435928344727</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.980070173740387</v>
+        <v>0.9706616997718811</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9070394039154053</v>
+        <v>0.846652090549469</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9811626672744751</v>
+        <v>0.9721572399139404</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9065645933151245</v>
+        <v>0.8465978503227234</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8858439922332764</v>
+        <v>0.8276323676109314</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.981185257434845</v>
+        <v>0.9721759557723999</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8754185438156128</v>
+        <v>0.8035856485366821</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8906263113021851</v>
+        <v>0.8330854177474976</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.907867431640625</v>
+        <v>0.847651481628418</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8933836221694946</v>
+        <v>0.836032509803772</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8848894834518433</v>
+        <v>0.8261459469795227</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7024309039115906</v>
+        <v>0.6021689772605896</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8828321099281311</v>
+        <v>0.8235650658607483</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.980943500995636</v>
+        <v>0.9718289375305176</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.887600839138031</v>
+        <v>0.8295447826385498</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8828886747360229</v>
+        <v>0.8242838382720947</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.97782963514328</v>
+        <v>0.9675679206848145</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.887600839138031</v>
+        <v>0.8295447826385498</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8878690600395203</v>
+        <v>0.8298429846763611</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9799817800521851</v>
+        <v>0.9705373048782349</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9802507758140564</v>
+        <v>0.970867395401001</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9813691377639771</v>
+        <v>0.9724195003509521</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9053628444671631</v>
+        <v>0.8447425961494446</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9810798168182373</v>
+        <v>0.972027599811554</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9795736074447632</v>
+        <v>0.9699627161026001</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9801297187805176</v>
+        <v>0.9707158803939819</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9810147285461426</v>
+        <v>0.9719484448432922</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9079987406730652</v>
+        <v>0.8478368520736694</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5079646706581116</v>
+        <v>0.4183254837989807</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9054628610610962</v>
+        <v>0.8447530269622803</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9054628610610962</v>
+        <v>0.8447530269622803</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9080358743667603</v>
+        <v>0.8478840589523315</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9054628610610962</v>
+        <v>0.8447530269622803</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6619880199432373</v>
+        <v>0.6542076468467712</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9800107479095459</v>
+        <v>0.9705767035484314</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9074731469154358</v>
+        <v>0.8474380373954773</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9755434989929199</v>
+        <v>0.9643657803535461</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9069533348083496</v>
+        <v>0.8466315269470215</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9790722727775574</v>
+        <v>0.9692511558532715</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9792525172233582</v>
+        <v>0.969524621963501</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9069533348083496</v>
+        <v>0.8466315269470215</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.978007972240448</v>
+        <v>0.9677906632423401</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9069533348083496</v>
+        <v>0.8466315269470215</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.980473518371582</v>
+        <v>0.9712220430374146</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9070471525192261</v>
+        <v>0.846707820892334</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9780198335647583</v>
+        <v>0.9678152203559875</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9070471525192261</v>
+        <v>0.846707820892334</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9722161889076233</v>
+        <v>0.959761917591095</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9722161889076233</v>
+        <v>0.959761917591095</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9813605546951294</v>
+        <v>0.9724109172821045</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9078498482704163</v>
+        <v>0.847888708114624</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9804657697677612</v>
+        <v>0.9712147116661072</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9069935083389282</v>
+        <v>0.846698522567749</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9779927730560303</v>
+        <v>0.9677735567092896</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9790528416633606</v>
+        <v>0.9692082405090332</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9790475964546204</v>
+        <v>0.9692028760910034</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9790657758712769</v>
+        <v>0.9692275524139404</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9790442585945129</v>
+        <v>0.9691969752311707</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9790433645248413</v>
+        <v>0.9691957235336304</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.979057788848877</v>
+        <v>0.9692185521125793</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9814634323120117</v>
+        <v>0.9725674390792847</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2314532995223999</v>
+        <v>0.2468610256910324</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9808555245399475</v>
+        <v>0.971732497215271</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9781069159507751</v>
+        <v>0.9679407477378845</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.977044403553009</v>
+        <v>0.9664520025253296</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9805406928062439</v>
+        <v>0.9713256359100342</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7195382118225098</v>
+        <v>0.6142129302024841</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8876013159751892</v>
+        <v>0.8293166756629944</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9792417883872986</v>
+        <v>0.969516396522522</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.671899676322937</v>
+        <v>0.6653047204017639</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9770720601081848</v>
+        <v>0.9664927124977112</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8915033340454102</v>
+        <v>0.8340528011322021</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.7021293640136719</v>
+        <v>0.5990351438522339</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9781903028488159</v>
+        <v>0.9680242538452148</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9779601693153381</v>
+        <v>0.9677215218544006</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8861962556838989</v>
+        <v>0.8275603652000427</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8906106948852539</v>
+        <v>0.8330928087234497</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9089971780776978</v>
+        <v>0.8492750525474548</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9810287356376648</v>
+        <v>0.9719699621200562</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9088762402534485</v>
+        <v>0.8493964672088623</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9721193909645081</v>
+        <v>0.9596608877182007</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9752064347267151</v>
+        <v>0.9639023542404175</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6250394582748413</v>
+        <v>0.6230463981628418</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9798509478569031</v>
+        <v>0.9703261256217957</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9779601693153381</v>
+        <v>0.9677215218544006</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6623329520225525</v>
+        <v>0.6547372937202454</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.980947732925415</v>
+        <v>0.97185879945755</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6623329520225525</v>
+        <v>0.6547372937202454</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.980947732925415</v>
+        <v>0.97185879945755</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.6623329520225525</v>
+        <v>0.6547372937202454</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9807268381118774</v>
+        <v>0.9715454578399658</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9783249497413635</v>
+        <v>0.9682207107543945</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9779601693153381</v>
+        <v>0.9677215218544006</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9799200892448425</v>
+        <v>0.9704734086990356</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9769572019577026</v>
+        <v>0.9663179516792297</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9751753807067871</v>
+        <v>0.9638593792915344</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8777422308921814</v>
+        <v>0.8165468573570251</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9792865514755249</v>
+        <v>0.9695928692817688</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9790220856666565</v>
+        <v>0.9691820740699768</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9800441861152649</v>
+        <v>0.9706158041954041</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9717029929161072</v>
+        <v>0.9590362906455994</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9792788028717041</v>
+        <v>0.9695625901222229</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9752110838890076</v>
+        <v>0.9639005661010742</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9752162098884583</v>
+        <v>0.9639099836349487</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.977985143661499</v>
+        <v>0.96775883436203</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6553512811660767</v>
+        <v>0.5420927405357361</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9779601693153381</v>
+        <v>0.9677215218544006</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9054547548294067</v>
+        <v>0.8447039723396301</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9795836806297302</v>
+        <v>0.9699671864509583</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9054547548294067</v>
+        <v>0.8447039723396301</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9721416234970093</v>
+        <v>0.9596610069274902</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.6619880199432373</v>
+        <v>0.6542076468467712</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9781226515769958</v>
+        <v>0.9679391384124756</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9068914651870728</v>
+        <v>0.8465672135353088</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.664359986782074</v>
+        <v>0.6569244265556335</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9779601693153381</v>
+        <v>0.9677215218544006</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.697927713394165</v>
+        <v>0.5929081439971924</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9811691641807556</v>
+        <v>0.9721622467041016</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.706453263759613</v>
+        <v>0.6031246781349182</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9808524250984192</v>
+        <v>0.9717298746109009</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.7067899107933044</v>
+        <v>0.6033175587654114</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9795795679092407</v>
+        <v>0.9699499011039734</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.7069135904312134</v>
+        <v>0.6034420728683472</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9799072742462158</v>
+        <v>0.9703972935676575</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9082791209220886</v>
+        <v>0.8486104011535645</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9782307147979736</v>
+        <v>0.9680837392807007</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9721274375915527</v>
+        <v>0.9609656929969788</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9752147197723389</v>
+        <v>0.9639149904251099</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9053820967674255</v>
+        <v>0.8446493744850159</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9813932776451111</v>
+        <v>0.972464919090271</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9722699522972107</v>
+        <v>0.9598386883735657</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8790929913520813</v>
+        <v>0.8193622827529907</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9087984561920166</v>
+        <v>0.8489859104156494</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9779601693153381</v>
+        <v>0.9677215218544006</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8790929913520813</v>
+        <v>0.8193622827529907</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9078577160835266</v>
+        <v>0.8477757573127747</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9779601693153381</v>
+        <v>0.9677215218544006</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9751860499382019</v>
+        <v>0.9638724327087402</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9751959443092346</v>
+        <v>0.9638762474060059</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9751860499382019</v>
+        <v>0.9638724327087402</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9751860499382019</v>
+        <v>0.9638724327087402</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9751959443092346</v>
+        <v>0.9638762474060059</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9781597256660461</v>
+        <v>0.9679719805717468</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9755750894546509</v>
+        <v>0.9644178748130798</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.979278564453125</v>
+        <v>0.9695618152618408</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.980654776096344</v>
+        <v>0.9714615941047668</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9800406694412231</v>
+        <v>0.9706196188926697</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.6688193678855896</v>
+        <v>0.663034975528717</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9809304475784302</v>
+        <v>0.9718374013900757</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9811790585517883</v>
+        <v>0.9721798300743103</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9802886247634888</v>
+        <v>0.9709308743476868</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9798795580863953</v>
+        <v>0.9703713655471802</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9782052636146545</v>
+        <v>0.9680426120758057</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9790204167366028</v>
+        <v>0.9691826105117798</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.979037880897522</v>
+        <v>0.9692047834396362</v>
       </c>
     </row>
     <row r="191">
@@ -5775,14 +5775,14 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.2275100350379944</v>
+        <v>0.2347782701253891</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9800822138786316</v>
+        <v>0.9706761837005615</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9793124198913574</v>
+        <v>0.9696130156517029</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.6618817448616028</v>
+        <v>0.6547671556472778</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.8874635100364685</v>
+        <v>0.828978955745697</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9808830618858337</v>
+        <v>0.9717683792114258</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9798827767372131</v>
+        <v>0.9703512787818909</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.98023921251297</v>
+        <v>0.9708524346351624</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9804948568344116</v>
+        <v>0.9712380170822144</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9067910313606262</v>
+        <v>0.8463836908340454</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9805154800415039</v>
+        <v>0.9712485671043396</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9805415868759155</v>
+        <v>0.9713041186332703</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9792957305908203</v>
+        <v>0.9695795178413391</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.8793823719024658</v>
+        <v>0.8195959329605103</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.980603039264679</v>
+        <v>0.9713653326034546</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9751704335212708</v>
+        <v>0.9638435244560242</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.2302442640066147</v>
+        <v>0.2455154806375504</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9755378365516663</v>
+        <v>0.9643491506576538</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.3416794538497925</v>
+        <v>0.343605101108551</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9792223572731018</v>
+        <v>0.9694818258285522</v>
       </c>
     </row>
   </sheetData>
